--- a/论文文献/论文/EXCEL/新建 Microsoft Excel 工作表.xlsx
+++ b/论文文献/论文/EXCEL/新建 Microsoft Excel 工作表.xlsx
@@ -10,11 +10,12 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>ρ=1</t>
   </si>
@@ -83,7 +84,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.2-1/0-1</t>
+    <t>IDW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPLINE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MRE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R SQUARE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -91,6 +124,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -127,8 +163,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -433,15 +470,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I2" sqref="I2:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>13</v>
       </c>
@@ -467,7 +504,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -484,30 +521,30 @@
         <v>3.0486599999999999</v>
       </c>
       <c r="F2">
-        <f>1-(B2-MIN(B$2:B$14))/(MAX(B$2:B$14)-MIN(B$2:B$14))</f>
+        <f t="shared" ref="F2:F14" si="0">1-(B2-MIN(B$2:B$14))/(MAX(B$2:B$14)-MIN(B$2:B$14))</f>
         <v>0.63611040769815141</v>
       </c>
       <c r="G2">
-        <f>1-(C2-MIN(C$2:C$14))/(MAX(C$2:C$14)-MIN(C$2:C$14))</f>
+        <f t="shared" ref="G2:G14" si="1">1-(C2-MIN(C$2:C$14))/(MAX(C$2:C$14)-MIN(C$2:C$14))</f>
         <v>0.86678768684098717</v>
       </c>
       <c r="H2">
-        <f>(D2-MIN(D$2:D$14))/(MAX(D$2:D$14)-MIN(D$2:D$14))</f>
+        <f t="shared" ref="H2:H14" si="2">(D2-MIN(D$2:D$14))/(MAX(D$2:D$14)-MIN(D$2:D$14))</f>
         <v>0.93816097356616635</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I14" si="0">1-(E2-MIN(E$2:E$14))/(MAX(E$2:E$14)-MIN(E$2:E$14))</f>
+        <f t="shared" ref="I2:I14" si="3">1-(E2-MIN(E$2:E$14))/(MAX(E$2:E$14)-MIN(E$2:E$14))</f>
         <v>0.1481005121785528</v>
       </c>
       <c r="J2">
-        <f>SUM(F2:I2)</f>
+        <f t="shared" ref="J2:J14" si="4">SUM(F2:I2)</f>
         <v>2.5891595802838578</v>
       </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M2">
+        <v>2.5891595802838578</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -524,27 +561,30 @@
         <v>1.8630599999999999</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F14" si="1">1-(B3-MIN(B$2:B$14))/(MAX(B$2:B$14)-MIN(B$2:B$14))</f>
+        <f t="shared" si="0"/>
         <v>0.80691314256773872</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G14" si="2">1-(C3-MIN(C$2:C$14))/(MAX(C$2:C$14)-MIN(C$2:C$14))</f>
+        <f t="shared" si="1"/>
         <v>0.89984936850643082</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H14" si="3">(D3-MIN(D$2:D$14))/(MAX(D$2:D$14)-MIN(D$2:D$14))</f>
+        <f t="shared" si="2"/>
         <v>0.95534756353009687</v>
       </c>
       <c r="I3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.60058850918639184</v>
       </c>
       <c r="J3">
-        <f t="shared" ref="J3:J14" si="4">SUM(F3:I3)</f>
+        <f t="shared" si="4"/>
         <v>3.2626985837906584</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M3">
+        <v>3.2626985837906584</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -561,27 +601,30 @@
         <v>1.17821</v>
       </c>
       <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.82666497847556342</v>
+      </c>
+      <c r="G4">
         <f t="shared" si="1"/>
-        <v>0.82666497847556342</v>
-      </c>
-      <c r="G4">
+        <v>0.89351512108454678</v>
+      </c>
+      <c r="H4">
         <f t="shared" si="2"/>
-        <v>0.89351512108454678</v>
-      </c>
-      <c r="H4">
+        <v>0.95167931989332455</v>
+      </c>
+      <c r="I4">
         <f t="shared" si="3"/>
-        <v>0.95167931989332455</v>
-      </c>
-      <c r="I4">
-        <f t="shared" si="0"/>
         <v>0.86196368188445072</v>
       </c>
       <c r="J4">
         <f t="shared" si="4"/>
         <v>3.5338231013378856</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M4">
+        <v>3.5338231013378856</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -598,27 +641,30 @@
         <v>0.87248999999999999</v>
       </c>
       <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.79349202329703716</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="1"/>
-        <v>0.79349202329703716</v>
-      </c>
-      <c r="G5">
+        <v>0.87953342860453443</v>
+      </c>
+      <c r="H5">
         <f t="shared" si="2"/>
-        <v>0.87953342860453443</v>
-      </c>
-      <c r="H5">
+        <v>0.9432903838883383</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="3"/>
-        <v>0.9432903838883383</v>
-      </c>
-      <c r="I5">
-        <f t="shared" si="0"/>
         <v>0.97864268867024407</v>
       </c>
       <c r="J5">
         <f t="shared" si="4"/>
         <v>3.5949585244601541</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M5">
+        <v>3.5949585244601541</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -635,27 +681,30 @@
         <v>0.98494000000000004</v>
       </c>
       <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
         <v>0.935725789831233</v>
       </c>
       <c r="J6">
         <f t="shared" si="4"/>
         <v>0.935725789831233</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M6">
+        <v>0.935725789831233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -672,27 +721,30 @@
         <v>0.81652999999999998</v>
       </c>
       <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.86933400860977461</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="1"/>
-        <v>0.86933400860977461</v>
-      </c>
-      <c r="G7">
+        <v>0.97543547951025456</v>
+      </c>
+      <c r="H7">
         <f t="shared" si="2"/>
-        <v>0.97543547951025456</v>
-      </c>
-      <c r="H7">
+        <v>0.95773856356075071</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="3"/>
-        <v>0.95773856356075071</v>
-      </c>
-      <c r="I7">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="J7">
         <f t="shared" si="4"/>
         <v>3.8025080516807801</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M7">
+        <v>3.8025080516807801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -709,27 +761,30 @@
         <v>0.81698999999999999</v>
       </c>
       <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.86730817928589521</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="1"/>
-        <v>0.86730817928589521</v>
-      </c>
-      <c r="G8">
+        <v>0.9025916341585879</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="2"/>
-        <v>0.9025916341585879</v>
-      </c>
-      <c r="H8">
+        <v>0.95687003790859015</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="3"/>
-        <v>0.95687003790859015</v>
-      </c>
-      <c r="I8">
-        <f t="shared" si="0"/>
         <v>0.99982443954232147</v>
       </c>
       <c r="J8">
         <f t="shared" si="4"/>
         <v>3.7265942908953948</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M8">
+        <v>3.7265942908953948</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -746,27 +801,30 @@
         <v>0.81727000000000005</v>
       </c>
       <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.8659154216257281</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="1"/>
-        <v>0.8659154216257281</v>
-      </c>
-      <c r="G9">
+        <v>0.90170329458112863</v>
+      </c>
+      <c r="H9">
         <f t="shared" si="2"/>
-        <v>0.90170329458112863</v>
-      </c>
-      <c r="H9">
+        <v>0.95635914046614279</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="3"/>
-        <v>0.95635914046614279</v>
-      </c>
-      <c r="I9">
-        <f t="shared" si="0"/>
         <v>0.99971757665503891</v>
       </c>
       <c r="J9">
         <f t="shared" si="4"/>
         <v>3.7236954333280381</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M9">
+        <v>3.7236954333280381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -783,27 +841,30 @@
         <v>2.3274400000000002</v>
       </c>
       <c r="F10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G10">
+        <v>0.97149588660152175</v>
+      </c>
+      <c r="H10">
         <f t="shared" si="2"/>
-        <v>0.97149588660152175</v>
-      </c>
-      <c r="H10">
+        <v>0.98980248704874985</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="3"/>
-        <v>0.98980248704874985</v>
-      </c>
-      <c r="I10">
-        <f t="shared" si="0"/>
         <v>0.42335641062827745</v>
       </c>
       <c r="J10">
         <f t="shared" si="4"/>
         <v>3.384654784278549</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M10">
+        <v>3.384654784278549</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -820,27 +881,30 @@
         <v>2.3883299999999998</v>
       </c>
       <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.98771840972398073</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="1"/>
-        <v>0.98771840972398073</v>
-      </c>
-      <c r="G11">
+        <v>0.97010544204549842</v>
+      </c>
+      <c r="H11">
         <f t="shared" si="2"/>
-        <v>0.97010544204549842</v>
-      </c>
-      <c r="H11">
+        <v>0.98922006396435969</v>
+      </c>
+      <c r="I11">
         <f t="shared" si="3"/>
-        <v>0.98922006396435969</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="0"/>
         <v>0.40011754917601094</v>
       </c>
       <c r="J11">
         <f t="shared" si="4"/>
         <v>3.34716146490985</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M11">
+        <v>3.34716146490985</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -857,27 +921,30 @@
         <v>2.4197299999999999</v>
       </c>
       <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0.95682451253481893</v>
+      </c>
+      <c r="G12">
         <f t="shared" si="1"/>
-        <v>0.95682451253481893</v>
-      </c>
-      <c r="G12">
+        <v>0.9660113552972075</v>
+      </c>
+      <c r="H12">
         <f t="shared" si="2"/>
-        <v>0.9660113552972075</v>
-      </c>
-      <c r="H12">
+        <v>0.98758519214852813</v>
+      </c>
+      <c r="I12">
         <f t="shared" si="3"/>
-        <v>0.98758519214852813</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="0"/>
         <v>0.38813363967361036</v>
       </c>
       <c r="J12">
         <f t="shared" si="4"/>
         <v>3.2985546996541646</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M12">
+        <v>3.2985546996541646</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -894,27 +961,30 @@
         <v>2.3532899999999999</v>
       </c>
       <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.99366928336287663</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="1"/>
-        <v>0.99366928336287663</v>
-      </c>
-      <c r="G13">
+        <v>0.97080066432351009</v>
+      </c>
+      <c r="H13">
         <f t="shared" si="2"/>
-        <v>0.97080066432351009</v>
-      </c>
-      <c r="H13">
+        <v>0.9895061665321303</v>
+      </c>
+      <c r="I13">
         <f t="shared" si="3"/>
-        <v>0.9895061665321303</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="0"/>
         <v>0.41349067621308477</v>
       </c>
       <c r="J13">
         <f t="shared" si="4"/>
         <v>3.3674667904316022</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="M13">
+        <v>3.3674667904316022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -931,23 +1001,298 @@
         <v>3.4367100000000002</v>
       </c>
       <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0.98252722208153964</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="1"/>
-        <v>0.98252722208153964</v>
-      </c>
-      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="I14">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J14">
         <f t="shared" si="4"/>
+        <v>2.9825272220815395</v>
+      </c>
+      <c r="M14">
+        <v>2.9825272220815395</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" t="s">
+        <v>8</v>
+      </c>
+      <c r="K17" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5.7079999999999999E-2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4.3589999999999997E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>4.2029999999999998E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4.4650000000000002E-2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.10732</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3.866E-2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>3.882E-2</v>
+      </c>
+      <c r="I18" s="1">
+        <v>3.8929999999999999E-2</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2.8340000000000001E-2</v>
+      </c>
+      <c r="K18" s="1">
+        <v>2.9309999999999999E-2</v>
+      </c>
+      <c r="L18" s="1">
+        <v>3.175E-2</v>
+      </c>
+      <c r="M18" s="1">
+        <v>2.8840000000000001E-2</v>
+      </c>
+      <c r="N18" s="1">
+        <v>2.972E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="1">
+        <v>6.923E-2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>6.0670000000000002E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>6.2309999999999997E-2</v>
+      </c>
+      <c r="E19" s="1">
+        <v>6.5930000000000002E-2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.29365000000000002</v>
+      </c>
+      <c r="G19" s="1">
+        <v>4.1099999999999998E-2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>5.9959999999999999E-2</v>
+      </c>
+      <c r="I19" s="1">
+        <v>6.019E-2</v>
+      </c>
+      <c r="J19" s="1">
+        <v>4.2119999999999998E-2</v>
+      </c>
+      <c r="K19" s="1">
+        <v>4.2479999999999997E-2</v>
+      </c>
+      <c r="L19" s="1">
+        <v>4.3540000000000002E-2</v>
+      </c>
+      <c r="M19" s="1">
+        <v>4.2299999999999997E-2</v>
+      </c>
+      <c r="N19" s="1">
+        <v>3.474E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.91815000000000002</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.93496999999999997</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.93137999999999999</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.92317000000000005</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0.93730999999999998</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0.93645999999999996</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.93596000000000001</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.96869000000000005</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0.96811999999999998</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.96652000000000005</v>
+      </c>
+      <c r="M20" s="1">
+        <v>0.96840000000000004</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.97867000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3.0486599999999999</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1.8630599999999999</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.17821</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.87248999999999999</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.98494000000000004</v>
+      </c>
+      <c r="G21" s="1">
+        <v>0.81652999999999998</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0.81698999999999999</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.81727000000000005</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2.3274400000000002</v>
+      </c>
+      <c r="K21" s="1">
+        <v>2.3883299999999998</v>
+      </c>
+      <c r="L21" s="1">
+        <v>2.4197299999999999</v>
+      </c>
+      <c r="M21" s="1">
+        <v>2.3532899999999999</v>
+      </c>
+      <c r="N21" s="1">
+        <v>3.4367100000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2.5891595802838578</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3.2626985837906584</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3.5338231013378856</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3.5949585244601541</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0.935725789831233</v>
+      </c>
+      <c r="G22" s="1">
+        <v>3.8025080516807801</v>
+      </c>
+      <c r="H22" s="1">
+        <v>3.7265942908953948</v>
+      </c>
+      <c r="I22" s="1">
+        <v>3.7236954333280381</v>
+      </c>
+      <c r="J22" s="1">
+        <v>3.384654784278549</v>
+      </c>
+      <c r="K22" s="1">
+        <v>3.34716146490985</v>
+      </c>
+      <c r="L22" s="1">
+        <v>3.2985546996541646</v>
+      </c>
+      <c r="M22" s="1">
+        <v>3.3674667904316022</v>
+      </c>
+      <c r="N22" s="1">
         <v>2.9825272220815395</v>
       </c>
     </row>
